--- a/Datos limpios/Pricing diario/2025/Total.xlsx
+++ b/Datos limpios/Pricing diario/2025/Total.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H291"/>
+  <dimension ref="A1:H298"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6354,10 +6354,10 @@
         <v>4316.99</v>
       </c>
       <c r="G230">
-        <v>60486.16</v>
+        <v>59947.69</v>
       </c>
       <c r="H230">
-        <v>356129.04</v>
+        <v>355590.57</v>
       </c>
     </row>
     <row r="231">
@@ -7108,10 +7108,10 @@
         <v>3401.69</v>
       </c>
       <c r="G259">
-        <v>164434.48</v>
+        <v>164194.48</v>
       </c>
       <c r="H259">
-        <v>438984.4300000001</v>
+        <v>438744.4300000001</v>
       </c>
     </row>
     <row r="260">
@@ -7463,7 +7463,7 @@
         <v>23891.31</v>
       </c>
       <c r="D273">
-        <v>70115.75</v>
+        <v>70085.70999999999</v>
       </c>
       <c r="E273">
         <v>380373.22</v>
@@ -7475,7 +7475,7 @@
         <v>59917.52</v>
       </c>
       <c r="H273">
-        <v>556071.9399999999</v>
+        <v>556041.9</v>
       </c>
     </row>
     <row r="274">
@@ -7524,10 +7524,10 @@
         <v>12823.31</v>
       </c>
       <c r="G275">
-        <v>70946.51000000001</v>
+        <v>70228.18000000001</v>
       </c>
       <c r="H275">
-        <v>660755.2100000001</v>
+        <v>660036.8800000001</v>
       </c>
     </row>
     <row r="276">
@@ -7648,7 +7648,7 @@
         <v>76440.70999999999</v>
       </c>
       <c r="E280">
-        <v>353344.83</v>
+        <v>352987.37</v>
       </c>
       <c r="F280">
         <v>1105.36</v>
@@ -7657,7 +7657,7 @@
         <v>159409.91</v>
       </c>
       <c r="H280">
-        <v>614488.34</v>
+        <v>614130.88</v>
       </c>
     </row>
     <row r="281">
@@ -7674,7 +7674,7 @@
         <v>81814.63</v>
       </c>
       <c r="E281">
-        <v>333715.39</v>
+        <v>333295.39</v>
       </c>
       <c r="F281">
         <v>2320.64</v>
@@ -7683,7 +7683,7 @@
         <v>148389.49</v>
       </c>
       <c r="H281">
-        <v>598898.9</v>
+        <v>598478.9</v>
       </c>
     </row>
     <row r="282">
@@ -7801,7 +7801,7 @@
         <v>12041.7</v>
       </c>
       <c r="D286">
-        <v>55630.35</v>
+        <v>55615.44</v>
       </c>
       <c r="E286">
         <v>98798.82000000001</v>
@@ -7813,7 +7813,7 @@
         <v>128284.08</v>
       </c>
       <c r="H286">
-        <v>313930.99</v>
+        <v>313916.08</v>
       </c>
     </row>
     <row r="287">
@@ -7830,7 +7830,7 @@
         <v>79089.73999999999</v>
       </c>
       <c r="E287">
-        <v>119886.94</v>
+        <v>119826.94</v>
       </c>
       <c r="F287">
         <v>505.52</v>
@@ -7839,7 +7839,7 @@
         <v>227439</v>
       </c>
       <c r="H287">
-        <v>459570.79</v>
+        <v>459510.79</v>
       </c>
     </row>
     <row r="288">
@@ -7862,10 +7862,10 @@
         <v>718.4299999999999</v>
       </c>
       <c r="G288">
-        <v>174044.37</v>
+        <v>173559.93</v>
       </c>
       <c r="H288">
-        <v>489231.41</v>
+        <v>488746.97</v>
       </c>
     </row>
     <row r="289">
@@ -7882,16 +7882,16 @@
         <v>123090.15</v>
       </c>
       <c r="E289">
-        <v>106076.55</v>
+        <v>106043.07</v>
       </c>
       <c r="F289">
         <v>18464.95</v>
       </c>
       <c r="G289">
-        <v>109590.62</v>
+        <v>107090.62</v>
       </c>
       <c r="H289">
-        <v>411221.74</v>
+        <v>408688.26</v>
       </c>
     </row>
     <row r="290">
@@ -7944,6 +7944,188 @@
       </c>
       <c r="H291">
         <v>320</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="2">
+        <v>45950</v>
+      </c>
+      <c r="B292">
+        <v>29450</v>
+      </c>
+      <c r="C292">
+        <v>27042.03</v>
+      </c>
+      <c r="D292">
+        <v>66628.43000000001</v>
+      </c>
+      <c r="E292">
+        <v>74159.78</v>
+      </c>
+      <c r="F292">
+        <v>631.89</v>
+      </c>
+      <c r="G292">
+        <v>81259.23</v>
+      </c>
+      <c r="H292">
+        <v>279171.36</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="2">
+        <v>45951</v>
+      </c>
+      <c r="B293">
+        <v>32388.12</v>
+      </c>
+      <c r="C293">
+        <v>44079.39999999999</v>
+      </c>
+      <c r="D293">
+        <v>84594.35000000001</v>
+      </c>
+      <c r="E293">
+        <v>71878.75</v>
+      </c>
+      <c r="F293">
+        <v>1088.84</v>
+      </c>
+      <c r="G293">
+        <v>76019.7</v>
+      </c>
+      <c r="H293">
+        <v>310049.16</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="2">
+        <v>45952</v>
+      </c>
+      <c r="B294">
+        <v>29730.26</v>
+      </c>
+      <c r="C294">
+        <v>72299.75999999999</v>
+      </c>
+      <c r="D294">
+        <v>63143.67</v>
+      </c>
+      <c r="E294">
+        <v>63085.05</v>
+      </c>
+      <c r="F294">
+        <v>1667.67</v>
+      </c>
+      <c r="G294">
+        <v>89844.42000000001</v>
+      </c>
+      <c r="H294">
+        <v>319770.83</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="2">
+        <v>45953</v>
+      </c>
+      <c r="B295">
+        <v>11516</v>
+      </c>
+      <c r="C295">
+        <v>57566.02</v>
+      </c>
+      <c r="D295">
+        <v>94249.38</v>
+      </c>
+      <c r="E295">
+        <v>73422.39999999999</v>
+      </c>
+      <c r="F295">
+        <v>3691.9</v>
+      </c>
+      <c r="G295">
+        <v>88709.97</v>
+      </c>
+      <c r="H295">
+        <v>329155.67</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="2">
+        <v>45954</v>
+      </c>
+      <c r="B296">
+        <v>15587.85</v>
+      </c>
+      <c r="C296">
+        <v>48819.15</v>
+      </c>
+      <c r="D296">
+        <v>96354.72</v>
+      </c>
+      <c r="E296">
+        <v>123627.6</v>
+      </c>
+      <c r="F296">
+        <v>684.49</v>
+      </c>
+      <c r="G296">
+        <v>69403.23</v>
+      </c>
+      <c r="H296">
+        <v>354477.04</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="2">
+        <v>45955</v>
+      </c>
+      <c r="B297">
+        <v>0</v>
+      </c>
+      <c r="C297">
+        <v>30</v>
+      </c>
+      <c r="D297">
+        <v>425.97</v>
+      </c>
+      <c r="E297">
+        <v>61.36</v>
+      </c>
+      <c r="F297">
+        <v>0</v>
+      </c>
+      <c r="G297">
+        <v>381.65</v>
+      </c>
+      <c r="H297">
+        <v>898.98</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="2">
+        <v>45957</v>
+      </c>
+      <c r="B298">
+        <v>7950</v>
+      </c>
+      <c r="C298">
+        <v>950</v>
+      </c>
+      <c r="D298">
+        <v>1510</v>
+      </c>
+      <c r="E298">
+        <v>2677.84</v>
+      </c>
+      <c r="F298">
+        <v>0</v>
+      </c>
+      <c r="G298">
+        <v>960</v>
+      </c>
+      <c r="H298">
+        <v>14047.84</v>
       </c>
     </row>
   </sheetData>
@@ -7952,8 +8134,8 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100D6CA5EAACE9DA04D9E421A617A76D009" ma:contentTypeVersion="19" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="bac5de4a034fee97af64ba5a2822cd53">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="77131357-5c03-45fa-a80b-b9111bb46cb1" xmlns:ns3="d3f11db4-a96c-41b4-b8ec-902c72f52048" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="027d3429df443898fbbc0b888682b5bf" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100D6CA5EAACE9DA04D9E421A617A76D009" ma:contentTypeVersion="19" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="854b0670eee28d8fa271d4f22cb9c97d">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="77131357-5c03-45fa-a80b-b9111bb46cb1" xmlns:ns3="d3f11db4-a96c-41b4-b8ec-902c72f52048" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b486ba09ce8a2fb19cc660d7edf32df4" ns2:_="" ns3:_="">
     <xsd:import namespace="77131357-5c03-45fa-a80b-b9111bb46cb1"/>
     <xsd:import namespace="d3f11db4-a96c-41b4-b8ec-902c72f52048"/>
     <xsd:element name="properties">
@@ -8234,13 +8416,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7A7B21D9-2C9D-4AE4-86DA-21E4C4957FD0}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A4C8187F-1E76-428B-867B-B2A3E366EE2C}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5C5D20D2-09E2-4D42-9F3D-05D821DB9306}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{154628FF-87C1-45D0-B955-CDA26DF2006C}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{783235FB-C1C8-4D73-ACD7-79463E30FD24}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2901503D-8277-4ADE-B445-1E09125BC271}"/>
 </file>